--- a/target/classes/Utilities/TestDate.xlsx
+++ b/target/classes/Utilities/TestDate.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ00VO865\Desktop\Selenuim_Java_Frameworkd\TestCrew\src\test\java\Utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ00VO865\Desktop\Automation\Selenuim_Java\SelenuimJava\src\main\java\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F76CD9-653E-43D6-9F5B-D3FE5F09883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FA007-B485-47D8-999E-B8C6BBD4A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1670" yWindow="2730" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="2220" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SA" sheetId="1" r:id="rId1"/>
-    <sheet name="KW" sheetId="2" r:id="rId2"/>
-    <sheet name="Bahrin" sheetId="3" r:id="rId3"/>
+    <sheet name="Egypt" sheetId="1" r:id="rId1"/>
+    <sheet name="UAE" sheetId="2" r:id="rId2"/>
+    <sheet name="Algeria " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>LITE</t>
   </si>
@@ -33,28 +33,34 @@
     <t>PREMIUM</t>
   </si>
   <si>
-    <t>SAR/month</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>KWD/month</t>
-  </si>
-  <si>
-    <t>BHD/month</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>USD/month</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -418,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,10 +437,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -443,9 +449,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -453,10 +459,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -470,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8D3418-8FA1-4620-9AA7-A87E8C13906A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C9:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,22 +489,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,10 +512,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -521,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAF0D0A-949E-4954-83C4-018D1C75EC1F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -546,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -557,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
